--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed5/result_data_KNN.xlsx
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.246</v>
+        <v>-7.139</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.37</v>
+        <v>-10.534</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.266000000000002</v>
+        <v>-8.163</v>
       </c>
     </row>
     <row r="24">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.302</v>
+        <v>-13.269</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.442</v>
+        <v>-7.597999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.316</v>
+        <v>-11.584</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.508</v>
+        <v>-7.540999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.762</v>
+        <v>-7.933</v>
       </c>
     </row>
     <row r="35">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.922</v>
+        <v>-12.588</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.528</v>
+        <v>-8.484000000000002</v>
       </c>
     </row>
     <row r="43">
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.572</v>
+        <v>-13.836</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.831999999999999</v>
+        <v>-7.986999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1191,10 +1191,10 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-11.624</v>
+        <v>-12.3</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.948</v>
+        <v>-7.530999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.06</v>
+        <v>-13.65</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.648</v>
+        <v>-13.166</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.716</v>
+        <v>-11.755</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.478</v>
+        <v>-11.052</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.984</v>
+        <v>-11.753</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.569999999999999</v>
+        <v>-8.208000000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.87</v>
+        <v>-8.242999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.182</v>
+        <v>-13.465</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.948</v>
+        <v>-14.085</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.688</v>
+        <v>-12.173</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.794</v>
+        <v>-10.711</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.482000000000001</v>
+        <v>-7.814</v>
       </c>
     </row>
     <row r="98">
@@ -1821,10 +1821,10 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-10.582</v>
+        <v>-11.242</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.74</v>
+        <v>-7.428</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.056000000000001</v>
+        <v>-7.656999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.132</v>
+        <v>-12.381</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
